--- a/Semester-4/Расписание 4 сем.xlsx
+++ b/Semester-4/Расписание 4 сем.xlsx
@@ -145,7 +145,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">ООП, </t>
+      <t xml:space="preserve">Право, </t>
     </r>
     <r>
       <rPr>
@@ -157,7 +157,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1724</t>
+      <t>1620</t>
     </r>
     <r>
       <rPr>
@@ -167,12 +167,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, Семёнов</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Операционки, </t>
+      <t>, Домничев</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Английский, </t>
     </r>
     <r>
       <rPr>
@@ -184,22 +184,43 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1724</t>
-    </r>
-    <r>
-      <rPr>
+      <t>6411</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">МАЙНОР, Кононова, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="8"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, Семёнов</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Право, </t>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3302</t>
+    </r>
+  </si>
+  <si>
+    <t>ООП, Семёнов</t>
+  </si>
+  <si>
+    <t>Операционки, Семёнов</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="2" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Среда, </t>
     </r>
     <r>
       <rPr>
@@ -211,76 +232,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1620</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, Домничев</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Английский, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>6411</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="2" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Среда, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Лекции</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">МАЙНОР, Кононова, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>3302</t>
+      <t>Лекции, Дист</t>
     </r>
   </si>
 </sst>
@@ -562,84 +514,87 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -925,7 +880,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G6"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -937,179 +892,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="12" t="s">
+      <c r="E2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:7" ht="27.75" customHeight="1">
-      <c r="A3" s="14">
+      <c r="A3" s="24">
         <v>1</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="16"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" ht="27.75" customHeight="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="17" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="16"/>
+      <c r="F4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" ht="27.75" customHeight="1">
-      <c r="A5" s="14">
+      <c r="A5" s="24">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="18" t="s">
+      <c r="E5" s="26" t="s">
         <v>20</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="22" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="27.75" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="17" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="25" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="18"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
     </row>
     <row r="7" spans="1:7" ht="27.75" customHeight="1">
-      <c r="A7" s="19">
+      <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>19</v>
+      <c r="E7" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="27.75" customHeight="1">
-      <c r="A8" s="14">
+      <c r="A8" s="24">
         <v>4</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>22</v>
+      <c r="D8" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="21"/>
+      <c r="G8" s="23"/>
     </row>
     <row r="9" spans="1:7" ht="27.75" customHeight="1">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17" t="s">
+      <c r="A9" s="24"/>
+      <c r="B9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="5"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="17"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="16"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" spans="1:7" ht="27.75" customHeight="1">
-      <c r="A10" s="19">
+      <c r="A10" s="11">
         <v>5</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="16"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="1:7" ht="27.75" customHeight="1">
-      <c r="A11" s="19">
+      <c r="A11" s="11">
         <v>6</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="14" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="17"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="16"/>
+      <c r="G11" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D11"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
